--- a/Daily updates.xlsx
+++ b/Daily updates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Task: Working on adding inline comments, updating the ui and handling more corner cases.</t>
+  </si>
+  <si>
+    <t>4 hours</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +436,9 @@
       <c r="A4" s="3">
         <v>44445</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -442,7 +447,9 @@
       <c r="A5" s="3">
         <v>44445</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
